--- a/data/income_statement/2digits/size/62_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/62_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>62-Computer programming, consultancy and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>62-Computer programming, consultancy and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,296 +841,336 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2246911.18578</v>
+        <v>2159432.02544</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2510603.36685</v>
+        <v>2351174.28991</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3037546.02408</v>
+        <v>2962839.55894</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3734074.16088</v>
+        <v>3546877.50662</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4885051.90336</v>
+        <v>4714393.45227</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5936934.45488</v>
+        <v>5712662.53902</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7281821.97508</v>
+        <v>7505949.36836</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8809721.538719999</v>
+        <v>9339532.569180001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>13730524.83578</v>
+        <v>13258187.71231</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15087760.6319</v>
+        <v>14736510.87088</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>19265363.58014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>18304661.10918</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>22554505.538</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1561152.23121</v>
+        <v>1493010.23985</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2006178.74023</v>
+        <v>1883789.48515</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2556171.39518</v>
+        <v>2517279.94677</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2981057.16387</v>
+        <v>2847587.94342</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4210245.90414</v>
+        <v>4064572.19271</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5037026.01641</v>
+        <v>4846390.56701</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6153003.748550001</v>
+        <v>6300491.54086</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7803354.49523</v>
+        <v>8173893.9358</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>12031428.94631</v>
+        <v>11684322.60986</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>13269507.1047</v>
+        <v>12974783.0317</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>16290777.51442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15478266.8426</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>18767336.508</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>544964.8868099999</v>
+        <v>541910.57762</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>452886.22958</v>
+        <v>437282.10248</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>430248.7372</v>
+        <v>422920.54302</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>702496.6248400001</v>
+        <v>657326.04672</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>647728.0911699999</v>
+        <v>624439.00865</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>877956.47278</v>
+        <v>847870.73372</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1083566.143</v>
+        <v>1168907.02674</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>952797.60393</v>
+        <v>1119773.70898</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1631999.11736</v>
+        <v>1516461.08488</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1684142.43664</v>
+        <v>1641327.80618</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2861353.36903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2717609.64279</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3677970.759</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>140794.06776</v>
+        <v>124511.20797</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>51538.39704</v>
+        <v>30102.70228</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>51125.8917</v>
+        <v>22639.06915</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>50520.37217</v>
+        <v>41963.51648</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>27077.90805</v>
+        <v>25382.25091</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>21951.96569</v>
+        <v>18401.23829</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>45252.08353</v>
+        <v>36550.80076</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>53569.43956</v>
+        <v>45864.9244</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>67096.77211000001</v>
+        <v>57404.01757</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>134111.09056</v>
+        <v>120400.033</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>113232.69669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>108784.62379</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>109198.271</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>19512.76578</v>
+        <v>17898.16517</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>24375.85679</v>
+        <v>20962.95397</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>15092.10257</v>
+        <v>14845.49452</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>15530.22169</v>
+        <v>14842.04639</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>30416.81519</v>
+        <v>28684.45751</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>66805.77</v>
+        <v>64524.61026</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>113913.40176</v>
+        <v>115536.567</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>143836.14138</v>
+        <v>147977.29344</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>213045.33815</v>
+        <v>210511.91996</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>297354.23353</v>
+        <v>287132.95585</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>322805.13711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>300861.79957</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>259760.972</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>16083.59528</v>
+        <v>14469.76035</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>21962.05392</v>
+        <v>18576.36726</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>13272.64898</v>
+        <v>13137.39856</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>12365.98941</v>
+        <v>11813.73776</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>26610.63383</v>
+        <v>24878.50071</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>56836.49457</v>
+        <v>54556.32864</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>102593.23063</v>
+        <v>104216.39587</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>133460.63088</v>
+        <v>128523.40685</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>177566.33236</v>
+        <v>175072.49711</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>263392.35673</v>
+        <v>258407.30486</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>300141.99933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>286332.00115</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>225553.842</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3339.58614</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2325.21662</v>
+        <v>2324.30338</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>1667.12418</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2946.88069</v>
+        <v>2810.95704</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3769.65262</v>
+        <v>3769.42806</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8808.043880000001</v>
+        <v>8807.050070000001</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>9766.1399</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6956.86157</v>
+        <v>16242.22603</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>23901.85646</v>
+        <v>23862.27352</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>30321.66401</v>
+        <v>25085.4382</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>16737.49156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8604.152199999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>23895.028</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>89.58436</v>
+        <v>88.81867999999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>88.58625000000001</v>
+        <v>62.28333</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>152.32941</v>
+        <v>40.97178</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>217.35159</v>
@@ -1244,7 +1185,7 @@
         <v>1554.03123</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3418.64893</v>
+        <v>3211.66056</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>11577.14933</v>
@@ -1255,92 +1196,107 @@
       <c r="M12" s="48" t="n">
         <v>5925.64622</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>10312.102</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2227398.42</v>
+        <v>2141533.86027</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2486227.51006</v>
+        <v>2330211.33594</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3022453.92151</v>
+        <v>2947994.06442</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3718543.93919</v>
+        <v>3532035.46023</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4854635.08817</v>
+        <v>4685708.99476</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5870128.684880001</v>
+        <v>5648137.928760001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7167908.57332</v>
+        <v>7390412.80136</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8665885.39734</v>
+        <v>9191555.275739999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>13517479.49763</v>
+        <v>13047675.79235</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14790406.39837</v>
+        <v>14449377.91503</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>18942558.44303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18003799.30961</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>22294744.566</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1375874.5918</v>
+        <v>1317581.98324</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1600282.17731</v>
+        <v>1483137.17365</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1981381.14672</v>
+        <v>1930473.26052</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2519531.54481</v>
+        <v>2433073.79258</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3300630.85949</v>
+        <v>3210107.31923</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3842064.66478</v>
+        <v>3727661.77365</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4704253.30333</v>
+        <v>4894176.11247</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6027998.804760001</v>
+        <v>6227893.91279</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8856616.13311</v>
+        <v>8648740.96177</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9914124.9112</v>
+        <v>9739366.788700001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12024282.14625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11600740.05109</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13828716.84</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>144355.25966</v>
+        <v>136892.838</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>177816.57937</v>
@@ -1349,118 +1305,133 @@
         <v>88462.61009</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>53410.23515</v>
+        <v>39694.67916</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>64173.58248</v>
+        <v>61183.58248</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>57035.86418</v>
+        <v>52787.29008</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>50488.88483</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>100511.45721</v>
+        <v>83872.83903</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>132926.81685</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>148754.12972</v>
+        <v>146385.83127</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>234379.73426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>207306.88592</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>385644.845</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>309879.2218</v>
+        <v>308563.0309</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>421181.6612</v>
+        <v>404868.58291</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>571584.22557</v>
+        <v>570151.78211</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>680907.64359</v>
+        <v>673013.03122</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1226402.46854</v>
+        <v>1207491.64505</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1225985.90392</v>
+        <v>1212849.7323</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1898537.13226</v>
+        <v>1824249.14102</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2002883.75494</v>
+        <v>2251143.24897</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3581495.22391</v>
+        <v>3555168.33651</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3672805.15354</v>
+        <v>3638534.77159</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4122696.14013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4037507.3895</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3767532.411</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>842593.10513</v>
+        <v>793079.10913</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>929355.80053</v>
+        <v>829597.20849</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1266580.46166</v>
+        <v>1217105.01892</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1774496.46108</v>
+        <v>1709648.87721</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1992045.45067</v>
+        <v>1923422.7339</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2524832.10435</v>
+        <v>2427813.95894</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2725243.30713</v>
+        <v>2989454.10751</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3880843.20362</v>
+        <v>3849117.4358</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5106151.97087</v>
+        <v>4924603.68693</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6022732.87117</v>
+        <v>5927750.37074</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7595653.74037</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7338264.570689999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>9639558.908</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>79047.00520999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>71928.13621</v>
+        <v>70854.80287999999</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>54753.8494</v>
@@ -1484,328 +1455,373 @@
         <v>36042.12147999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>69832.75676999999</v>
+        <v>26695.8151</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>71552.53148999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17661.20498</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>35980.676</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>851523.8282000001</v>
+        <v>823951.87703</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>885945.3327499999</v>
+        <v>847074.16229</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1041072.77479</v>
+        <v>1017520.8039</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1199012.39438</v>
+        <v>1098961.66765</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1554004.22868</v>
+        <v>1475601.67553</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2028064.0201</v>
+        <v>1920476.15511</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2463655.26999</v>
+        <v>2496236.68889</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2637886.59258</v>
+        <v>2963661.36295</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4660863.36452</v>
+        <v>4398934.83058</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4876281.48717</v>
+        <v>4710011.12633</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6918276.29678</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6403059.258520001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8466027.726</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>679051.6423200001</v>
+        <v>658181.6781200001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>764512.57985</v>
+        <v>717614.6296900001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>871392.46999</v>
+        <v>853371.91727</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1075720.44771</v>
+        <v>1028608.79221</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1305194.86218</v>
+        <v>1268057.80494</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1581483.5411</v>
+        <v>1535482.85003</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1969629.61257</v>
+        <v>1912909.19331</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1980801.38482</v>
+        <v>2334526.44406</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2942835.30075</v>
+        <v>2782237.76358</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2968017.59364</v>
+        <v>2846676.37354</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4433883.50397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4170343.2916</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4894369.638</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>158631.82561</v>
+        <v>151996.22821</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>181516.82883</v>
+        <v>175388.97116</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>199355.27936</v>
+        <v>198438.4873</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>266144.80589</v>
+        <v>247178.56155</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>324846.15099</v>
+        <v>318765.64838</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>363652.29225</v>
+        <v>359817.25456</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>452736.52427</v>
+        <v>440061.03555</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>702184.23914</v>
+        <v>716478.36569</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>864969.46444</v>
+        <v>823965.75437</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1036965.73661</v>
+        <v>1033444.83835</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1467267.28457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1373635.78298</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1989750.52</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>239150.03214</v>
+        <v>237016.00359</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>275724.8096</v>
+        <v>270001.08166</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>337579.57741</v>
+        <v>335841.6283</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>414078.53623</v>
+        <v>406759.96458</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>541953.0406299999</v>
+        <v>528063.38474</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>663638.32439</v>
+        <v>647807.3819400001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>693187.3199</v>
+        <v>716495.5231699999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>596377.0414400001</v>
+        <v>771595.8711799999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>987050.4942000001</v>
+        <v>969879.72574</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>867011.54388</v>
+        <v>850453.52475</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1503102.58714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1449515.08128</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1159650.469</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>281269.78457</v>
+        <v>269169.44632</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>307270.94142</v>
+        <v>272224.57687</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>334457.6132200001</v>
+        <v>319091.80167</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>395497.10559</v>
+        <v>374670.26608</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>438395.67056</v>
+        <v>421228.77182</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>554192.92446</v>
+        <v>527858.2135299999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>823705.7683999999</v>
+        <v>756352.63459</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>682240.10424</v>
+        <v>846452.2071900001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1090815.34211</v>
+        <v>988392.28347</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1064040.31315</v>
+        <v>962778.0104400001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1463513.63226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1347192.42734</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1744968.649</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>172472.18588</v>
+        <v>165770.19891</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>121432.7529</v>
+        <v>129459.5326</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>169680.3048</v>
+        <v>164148.88663</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>123291.94667</v>
+        <v>70352.87544</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>248809.3665</v>
+        <v>207543.87059</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>446580.479</v>
+        <v>384993.30508</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>494025.65742</v>
+        <v>583327.49558</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>657085.20776</v>
+        <v>629134.91889</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1718028.06377</v>
+        <v>1616697.067</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1908263.89353</v>
+        <v>1863334.75279</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2484392.79281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2232715.96692</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3571658.088</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>501736.04806</v>
+        <v>445020.28492</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>484483.85594</v>
+        <v>384913.71365</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>726649.2035299999</v>
+        <v>701460.76514</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>581441.1158799999</v>
+        <v>524832.8891499999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>741913.19128</v>
+        <v>666741.7718400001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>967954.08834</v>
+        <v>916122.0097899999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1604904.90231</v>
+        <v>1676538.49928</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1803896.80216</v>
+        <v>1755532.24097</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2066074.09855</v>
+        <v>1829364.44239</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4287682.20951</v>
+        <v>4001860.33998</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2763185.90154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2441440.3192</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4652728.031</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>7361.665889999999</v>
+        <v>6587.791389999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>9142.28544</v>
+        <v>7369.33207</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>30249.26831</v>
+        <v>30242.45705</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>15630.43915</v>
+        <v>3910.6199</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>16727.11656</v>
+        <v>10487.17825</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>4541.33181</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5308.41961</v>
+        <v>5766.12824</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>76753.87304999999</v>
+        <v>62329.71799</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>40908.45201</v>
+        <v>38694.59201</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>61177.80344</v>
+        <v>37797.95861</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>112112.26396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>46344.28840999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>38758.224</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1200.23157</v>
@@ -1820,79 +1836,89 @@
         <v>1345.12973</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>9888.27282</v>
+        <v>4141.6078</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>37795.769</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>209273.39449</v>
+        <v>210637.98499</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>281.49196</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>82985.90987999999</v>
+        <v>41346.98571</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>17347.82671</v>
+        <v>8914.217000000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>42183.31362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>26331.14643</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>10074.095</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>42735.69464</v>
+        <v>32437.35354</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>38344.27841</v>
+        <v>32237.81383</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>40036.29559</v>
+        <v>35525.76723</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>42640.32369</v>
+        <v>37374.74076</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>37995.89646</v>
+        <v>35595.58912</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>82573.70775</v>
+        <v>75282.34201000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>67079.28071000001</v>
+        <v>77113.06973</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>100114.32121</v>
+        <v>99047.25768000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>166934.15949</v>
+        <v>148378.37237</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>231420.29551</v>
+        <v>221874.99085</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>290343.1429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>224061.64772</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>317659.221</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>51133.49374000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>53355.24737</v>
+        <v>53338.47782</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>51773.756</v>
+        <v>51754.09963</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>62252.88136</v>
@@ -1907,37 +1933,42 @@
         <v>65324.43709000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>98478.18087000001</v>
+        <v>92389.31364000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>65741.60653999999</v>
+        <v>65522.60654</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>66214.0943</v>
+        <v>66195.43204</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>136567.15042</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>110513.37</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>7129.58657</v>
+        <v>7120.26754</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>6792.1785</v>
+        <v>6777.98701</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>9709.141009999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>17609.61523</v>
+        <v>17448.40137</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>14560.72626</v>
+        <v>14527.07595</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>42540.57096</v>
@@ -1946,100 +1977,115 @@
         <v>21765.89777</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>48437.40470000001</v>
+        <v>48370.69373</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>22255.63193</v>
+        <v>22244.85861</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>24274.0816</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>23015.01688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>22866.24566</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>32593.614</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>35805.51713</v>
+        <v>3838.18178</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1752.54142</v>
+        <v>1323.99587</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3016.31627</v>
+        <v>1796.56315</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3820.7628</v>
+        <v>3060.00423</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3170.47439</v>
+        <v>1316.09429</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4023.71935</v>
+        <v>1299.5659</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>7692.46429</v>
+        <v>4113.33278</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6128.89566</v>
+        <v>4360.721320000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>59748.4719</v>
+        <v>4563.018099999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>9022.81999</v>
+        <v>1725.41999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>21553.20519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10914.24921</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>71835.98</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>284532.25116</v>
+        <v>271778.29218</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>285456.54007</v>
+        <v>197521.18262</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>457274.42081</v>
+        <v>439232.86878</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>228879.62102</v>
+        <v>192104.12265</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>379387.3352</v>
+        <v>325651.01083</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>513239.40312</v>
+        <v>474831.54696</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>986168.2869500001</v>
+        <v>1054803.12023</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1235497.56218</v>
+        <v>1219083.57972</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1274129.16073</v>
+        <v>1207846.01494</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3471787.17096</v>
+        <v>3239333.36886</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1699425.51464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1550407.4805</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3632686.988</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>105.37953</v>
@@ -2063,7 +2109,7 @@
         <v>371.58563</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>504.48075</v>
+        <v>467.56295</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>349.96546</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1113.47134</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>10471.301</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,109 +2156,124 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>416.33196</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>160.586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>71732.22783</v>
+        <v>70819.29365000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>88812.08617</v>
+        <v>85516.22587000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>132469.09521</v>
+        <v>131078.95796</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>209078.64501</v>
+        <v>207153.29126</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>192045.41831</v>
+        <v>186885.26432</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>211053.87775</v>
+        <v>207645.17455</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>241921.13577</v>
+        <v>236642.94282</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>237700.59178</v>
+        <v>229201.90198</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>352604.40865</v>
+        <v>300418.02865</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>405632.23847</v>
+        <v>400938.9925</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>436712.23659</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>422834.63951</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>428135.238</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>335856.28157</v>
+        <v>316116.50432</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>322065.91932</v>
+        <v>249316.93895</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>566978.476</v>
+        <v>481696.28607</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>339449.18866</v>
+        <v>304984.5866</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>819912.99952</v>
+        <v>759715.94076</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>802169.9540700001</v>
+        <v>762679.985</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1572128.01878</v>
+        <v>1657800.61754</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1834431.5183</v>
+        <v>1813479.80879</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1500197.58942</v>
+        <v>1431181.14713</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3341009.02523</v>
+        <v>3138936.74734</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1816108.15372</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1641210.71108</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3588361.252</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>89.16255</v>
+        <v>65.67413999999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>140.69139</v>
+        <v>113.52985</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>233.53086</v>
+        <v>144.25464</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>600.80423</v>
+        <v>599.07131</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>358.9089</v>
@@ -2219,10 +2285,10 @@
         <v>2810.54149</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>16274.74329</v>
+        <v>16170.69015</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>10186.61498</v>
+        <v>9753.18181</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>9198.84071</v>
@@ -2230,77 +2296,87 @@
       <c r="M37" s="48" t="n">
         <v>7791.85734</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>11512.338</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6028.050490000001</v>
+        <v>5990.74862</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8075.485900000001</v>
+        <v>5249.62907</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>21896.56458</v>
+        <v>10719.54675</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>17182.48089</v>
+        <v>16702.41703</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>18813.67199</v>
+        <v>18317.20148</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>30398.15204</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>26789.86754</v>
+        <v>28035.52013</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>32795.57309</v>
+        <v>32128.31294</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>34767.64882</v>
+        <v>33779.62436</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>49738.43782</v>
+        <v>49581.35004</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>124545.25673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>108454.18575</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>90659.16099999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>3272.72416</v>
+        <v>2589.1203</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>213.59763</v>
+        <v>80.59763000000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1298.74694</v>
+        <v>440.39727</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>65.42576</v>
+        <v>62.88576</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>761.57123</v>
+        <v>556.57123</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>209.01373</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>177.84937</v>
+        <v>20.75196</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>229.20417</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>227.02382</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>8.213899999999999</v>
@@ -2308,59 +2384,69 @@
       <c r="M39" s="48" t="n">
         <v>2653.73868</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3721.492</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>282078.5936</v>
+        <v>263179.19028</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>269409.3917</v>
+        <v>201154.11233</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>492962.31697</v>
+        <v>420428.26789</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>216173.81383</v>
+        <v>182418.11241</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>708584.9660700001</v>
+        <v>649090.79798</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>676074.17105</v>
+        <v>636599.03732</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1434188.67381</v>
+        <v>1519145.46056</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1705594.34245</v>
+        <v>1687728.62107</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1379142.10947</v>
+        <v>1314308.06757</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3054566.16025</v>
+        <v>2852651.47851</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1394089.2605</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1235586.74199</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3279937.752</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>103.24914</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>145.5405</v>
+        <v>92.01961999999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>338.46831</v>
+        <v>52.33286</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>212.79497</v>
@@ -2375,7 +2461,7 @@
         <v>421.64165</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>473.8459</v>
+        <v>454.49056</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>410.05683</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1087.44623</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>780.076</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,137 +2516,157 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>44284.50163000001</v>
+        <v>44188.52184</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>44081.2122</v>
+        <v>42627.05045</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>50248.84834</v>
+        <v>49911.48666</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>105213.86898</v>
+        <v>104989.30512</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>90741.84906000001</v>
+        <v>90740.4289</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>94877.51415999999</v>
+        <v>94862.67881999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>107739.44492</v>
+        <v>107366.70175</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>79063.80940000001</v>
+        <v>76997.69407</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>75464.1355</v>
+        <v>72930.21656</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>226705.99595</v>
+        <v>226705.48758</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>285940.59424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>285636.74109</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>201750.433</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>97135.40356999999</v>
+        <v>83476.62059999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>31091.20992</v>
+        <v>10440.69305</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>36898.95147</v>
+        <v>27783.10313</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>30716.79845</v>
+        <v>23160.56823</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>84252.63683</v>
+        <v>78828.45909</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>166735.10385</v>
+        <v>160021.4087</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>245723.15916</v>
+        <v>229315.21885</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>281211.22804</v>
+        <v>266817.11405</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>314326.82435</v>
+        <v>289017.38665</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>160653.82553</v>
+        <v>127244.09184</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>455812.0285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>391160.13439</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>405580.947</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>91734.31376999999</v>
+        <v>81042.32669</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>26450.02335</v>
+        <v>8430.926599999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>19903.39387</v>
+        <v>14388.20839</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>29171.03746</v>
+        <v>21614.80724</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>37726.9861</v>
+        <v>32302.80836</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>56885.96775</v>
+        <v>50172.2726</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>95447.29032</v>
+        <v>79039.35001000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>94679.61086</v>
+        <v>80285.49687</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>162415.28995</v>
+        <v>137320.08836</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>160653.82553</v>
+        <v>127244.09184</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>455812.0285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>391160.13439</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>405580.947</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5401.0898</v>
+        <v>2434.29391</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>4641.18657</v>
+        <v>2009.76645</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>16995.5576</v>
+        <v>13394.89474</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>1545.76099</v>
@@ -2573,7 +2684,7 @@
         <v>186531.61718</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>151911.5344</v>
+        <v>151697.29829</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>0</v>
@@ -2581,104 +2692,119 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>241216.5488</v>
+        <v>211197.35891</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>252759.4796</v>
+        <v>254615.61425</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>292452.08086</v>
+        <v>356130.26257</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>334567.07544</v>
+        <v>267040.60976</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>86556.92143</v>
+        <v>35741.24258</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>445629.50942</v>
+        <v>378413.92117</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>281079.38179</v>
+        <v>372750.15847</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>345339.26358</v>
+        <v>304370.23702</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1969577.74855</v>
+        <v>1725862.97561</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2694283.25228</v>
+        <v>2599014.25359</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2975658.51213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2641785.44065</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>4230443.92</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>26968.68487</v>
+        <v>25553.69126</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>32321.3172</v>
+        <v>6900.66122</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>15119.84568</v>
+        <v>13532.47666</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>194940.28574</v>
+        <v>193652.37293</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>144424.99368</v>
+        <v>100890.19305</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>30397.62361</v>
+        <v>24654.39497</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>66039.0739</v>
+        <v>57293.11397</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>53758.37013</v>
+        <v>52775.24749</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>72408.17483</v>
+        <v>69600.22604000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>81047.17998999999</v>
+        <v>76850.61592</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>108172.5779</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>96148.84278000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>117553.065</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1215.15249</v>
+        <v>1090.02813</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>20893.28339</v>
+        <v>983.59992</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>589.51307</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1637.33441</v>
+        <v>1604.00076</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>7115.757019999999</v>
+        <v>7112.38858</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>6825.37507</v>
@@ -2690,97 +2816,112 @@
         <v>6709.915230000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>9557.752390000001</v>
+        <v>9362.3935</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4529.482889999999</v>
+        <v>4115.51275</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>9294.707400000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>8651.56588</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4048.97</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>25753.53238</v>
+        <v>24463.66313</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>11428.03381</v>
+        <v>5917.061299999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>14530.33261</v>
+        <v>12942.96359</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>193302.95133</v>
+        <v>192048.37217</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>137309.23666</v>
+        <v>93777.80447</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>23572.24854</v>
+        <v>17829.0199</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>64270.89018</v>
+        <v>55524.93025</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>47048.4549</v>
+        <v>46065.33226</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>62850.42243999999</v>
+        <v>60237.83254</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>76517.69709999999</v>
+        <v>72735.10317</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>98877.8705</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>87497.27690000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>113504.095</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>144292.95172</v>
+        <v>139906.01619</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>41706.75377</v>
+        <v>24672.14773</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>198243.95335</v>
+        <v>28375.86182</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>59631.08479</v>
+        <v>42998.09528</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>22195.42044</v>
+        <v>15546.53984</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>51564.70659</v>
+        <v>47477.85977</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>34374.5416</v>
+        <v>37552.06247</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>110443.75294</v>
+        <v>88807.95515000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>63133.573</v>
+        <v>46114.29586</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>72269.83765</v>
+        <v>63395.73709</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>63479.23457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>40928.69962</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>113098.244</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>149.66588</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>3106.05436</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>31.373</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>41910.9595</v>
+        <v>38948.71888</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>12888.62361</v>
+        <v>1445.28832</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>169982.18814</v>
+        <v>4055.39067</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2322.20469</v>
+        <v>1461.89002</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7045.28096</v>
+        <v>4902.245730000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6140.03945</v>
+        <v>6109.75637</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5657.97523</v>
+        <v>4247.93988</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>17571.99021</v>
+        <v>14962.70896</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>11426.24009</v>
+        <v>10257.40089</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12844.24238</v>
+        <v>12518.82441</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3286.64275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3209.85846</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>10005.321</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>102232.32634</v>
+        <v>100807.63143</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>28818.13016</v>
+        <v>23226.85941</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>28261.76521</v>
+        <v>24320.47115</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>57308.8801</v>
+        <v>41536.20526</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>15150.13948</v>
+        <v>10644.29411</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>45424.66714</v>
+        <v>41368.1034</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>28716.56637</v>
+        <v>33304.12259</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>92871.76273</v>
+        <v>73845.24618999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>51707.33291</v>
+        <v>35856.89497</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>59425.59527000001</v>
+        <v>50876.91268</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>57086.53746</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>34612.78679999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>103061.55</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>123892.28195</v>
+        <v>96845.03398000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>243374.04303</v>
+        <v>236844.12774</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>109327.97319</v>
+        <v>341286.87741</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>469876.27639</v>
+        <v>417694.88741</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>208786.49467</v>
+        <v>121084.89579</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>424462.42644</v>
+        <v>355590.45637</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>312743.91409</v>
+        <v>392491.20997</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>288653.88077</v>
+        <v>268337.52936</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1978852.35038</v>
+        <v>1749348.90579</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2703060.59462</v>
+        <v>2612469.13242</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3020351.85546</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2697005.58381</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>4234898.741</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>32721.4754</v>
+        <v>29917.755</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>35273.36757</v>
+        <v>33236.99319</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>36789.50115</v>
+        <v>35098.55119</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>46449.77103</v>
+        <v>43794.26086</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>65380.25468999999</v>
+        <v>60508.59152</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>79819.01968000001</v>
+        <v>74310.50540000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>94496.66884</v>
+        <v>94940.22395</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>99393.09687000001</v>
+        <v>99740.09642</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>264179.80509</v>
+        <v>251262.45846</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>342977.84937</v>
+        <v>341254.91833</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>357527.02283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>340539.40592</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>415096.256</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>91170.80654999999</v>
+        <v>66927.27898</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>208100.67546</v>
+        <v>203607.13455</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>72538.47204000001</v>
+        <v>306188.32622</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>423426.50536</v>
+        <v>373900.62655</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>143406.23998</v>
+        <v>60576.30427</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>344643.40676</v>
+        <v>281279.95097</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>218247.24525</v>
+        <v>297550.98602</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>189260.7839</v>
+        <v>168597.43294</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1714672.54529</v>
+        <v>1498086.44733</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2360082.74525</v>
+        <v>2271214.21409</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2662824.83263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2356466.17789</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3819802.485</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>68</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>